--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H2">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I2">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J2">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.925612233692</v>
+        <v>7.259429666666667</v>
       </c>
       <c r="N2">
-        <v>58.925612233692</v>
+        <v>21.778289</v>
       </c>
       <c r="O2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422108</v>
       </c>
       <c r="P2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422109</v>
       </c>
       <c r="Q2">
-        <v>837.4416148616432</v>
+        <v>299.3577883903418</v>
       </c>
       <c r="R2">
-        <v>837.4416148616432</v>
+        <v>2694.220095513076</v>
       </c>
       <c r="S2">
-        <v>0.4189224184164302</v>
+        <v>0.05065307108811278</v>
       </c>
       <c r="T2">
-        <v>0.4189224184164302</v>
+        <v>0.05065307108811279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H3">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I3">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J3">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.8920841212678</v>
+        <v>60.13240533333334</v>
       </c>
       <c r="N3">
-        <v>65.8920841212678</v>
+        <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.5279065873310319</v>
+        <v>0.438720299189682</v>
       </c>
       <c r="P3">
-        <v>0.5279065873310319</v>
+        <v>0.4387202991896821</v>
       </c>
       <c r="Q3">
-        <v>936.4480272902949</v>
+        <v>2479.685691265039</v>
       </c>
       <c r="R3">
-        <v>936.4480272902949</v>
+        <v>22317.17122138535</v>
       </c>
       <c r="S3">
-        <v>0.4684494600600411</v>
+        <v>0.419577176432255</v>
       </c>
       <c r="T3">
-        <v>0.4684494600600411</v>
+        <v>0.419577176432255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80381342226958</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H4">
-        <v>1.80381342226958</v>
+        <v>123.711284</v>
       </c>
       <c r="I4">
-        <v>0.1126281215235287</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J4">
-        <v>0.1126281215235287</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.925612233692</v>
+        <v>69.67135866666666</v>
       </c>
       <c r="N4">
-        <v>58.925612233692</v>
+        <v>209.014076</v>
       </c>
       <c r="O4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260968</v>
       </c>
       <c r="P4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260969</v>
       </c>
       <c r="Q4">
-        <v>106.2908102625862</v>
+        <v>2873.044412892621</v>
       </c>
       <c r="R4">
-        <v>106.2908102625862</v>
+        <v>25857.39971603359</v>
       </c>
       <c r="S4">
-        <v>0.05317099425253795</v>
+        <v>0.4861357496929262</v>
       </c>
       <c r="T4">
-        <v>0.05317099425253795</v>
+        <v>0.4861357496929262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.030543</v>
+      </c>
+      <c r="H5">
+        <v>0.091629</v>
+      </c>
+      <c r="I5">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J5">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>7.259429666666667</v>
+      </c>
+      <c r="N5">
+        <v>21.778289</v>
+      </c>
+      <c r="O5">
+        <v>0.05296410708422108</v>
+      </c>
+      <c r="P5">
+        <v>0.05296410708422109</v>
+      </c>
+      <c r="Q5">
+        <v>0.221724760309</v>
+      </c>
+      <c r="R5">
+        <v>1.995522842781</v>
+      </c>
+      <c r="S5">
+        <v>3.751711323869766E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.751711323869766E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.030543</v>
+      </c>
+      <c r="H6">
+        <v>0.091629</v>
+      </c>
+      <c r="I6">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J6">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>60.13240533333334</v>
+      </c>
+      <c r="N6">
+        <v>180.397216</v>
+      </c>
+      <c r="O6">
+        <v>0.438720299189682</v>
+      </c>
+      <c r="P6">
+        <v>0.4387202991896821</v>
+      </c>
+      <c r="Q6">
+        <v>1.836624056096</v>
+      </c>
+      <c r="R6">
+        <v>16.529616504864</v>
+      </c>
+      <c r="S6">
+        <v>0.0003107674244114311</v>
+      </c>
+      <c r="T6">
+        <v>0.0003107674244114311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.030543</v>
+      </c>
+      <c r="H7">
+        <v>0.091629</v>
+      </c>
+      <c r="I7">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J7">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>69.67135866666666</v>
+      </c>
+      <c r="N7">
+        <v>209.014076</v>
+      </c>
+      <c r="O7">
+        <v>0.5083155937260968</v>
+      </c>
+      <c r="P7">
+        <v>0.5083155937260969</v>
+      </c>
+      <c r="Q7">
+        <v>2.127972307756</v>
+      </c>
+      <c r="R7">
+        <v>19.151750769804</v>
+      </c>
+      <c r="S7">
+        <v>0.0003600652355092615</v>
+      </c>
+      <c r="T7">
+        <v>0.0003600652355092615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.850891</v>
+      </c>
+      <c r="H8">
+        <v>5.552673</v>
+      </c>
+      <c r="I8">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J8">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>7.259429666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.778289</v>
+      </c>
+      <c r="O8">
+        <v>0.05296410708422108</v>
+      </c>
+      <c r="P8">
+        <v>0.05296410708422109</v>
+      </c>
+      <c r="Q8">
+        <v>13.43641303516633</v>
+      </c>
+      <c r="R8">
+        <v>120.927717316497</v>
+      </c>
+      <c r="S8">
+        <v>0.002273518882869605</v>
+      </c>
+      <c r="T8">
+        <v>0.002273518882869605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="H5">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="I5">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="J5">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>65.8920841212678</v>
-      </c>
-      <c r="N5">
-        <v>65.8920841212678</v>
-      </c>
-      <c r="O5">
-        <v>0.5279065873310319</v>
-      </c>
-      <c r="P5">
-        <v>0.5279065873310319</v>
-      </c>
-      <c r="Q5">
-        <v>118.8570257592591</v>
-      </c>
-      <c r="R5">
-        <v>118.8570257592591</v>
-      </c>
-      <c r="S5">
-        <v>0.0594571272709908</v>
-      </c>
-      <c r="T5">
-        <v>0.0594571272709908</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.850891</v>
+      </c>
+      <c r="H9">
+        <v>5.552673</v>
+      </c>
+      <c r="I9">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J9">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60.13240533333334</v>
+      </c>
+      <c r="N9">
+        <v>180.397216</v>
+      </c>
+      <c r="O9">
+        <v>0.438720299189682</v>
+      </c>
+      <c r="P9">
+        <v>0.4387202991896821</v>
+      </c>
+      <c r="Q9">
+        <v>111.2985278398187</v>
+      </c>
+      <c r="R9">
+        <v>1001.686750558368</v>
+      </c>
+      <c r="S9">
+        <v>0.01883235533301568</v>
+      </c>
+      <c r="T9">
+        <v>0.01883235533301568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.850891</v>
+      </c>
+      <c r="H10">
+        <v>5.552673</v>
+      </c>
+      <c r="I10">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J10">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>69.67135866666666</v>
+      </c>
+      <c r="N10">
+        <v>209.014076</v>
+      </c>
+      <c r="O10">
+        <v>0.5083155937260968</v>
+      </c>
+      <c r="P10">
+        <v>0.5083155937260969</v>
+      </c>
+      <c r="Q10">
+        <v>128.9540907139053</v>
+      </c>
+      <c r="R10">
+        <v>1160.586816425148</v>
+      </c>
+      <c r="S10">
+        <v>0.02181977879766141</v>
+      </c>
+      <c r="T10">
+        <v>0.02181977879766141</v>
       </c>
     </row>
   </sheetData>
